--- a/data/trans_orig/P16A15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (tasa de respuesta: 99,74%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2012 (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
+          <t>Población según si ha consumido medicinas para bajar el colesterol en las dos últimas semanas en 2023 (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A15-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>40796</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>31135</v>
+        <v>30045</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56568</v>
+        <v>56002</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0588688221484944</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04492828922074765</v>
+        <v>0.04335512089342453</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08162814162888515</v>
+        <v>0.08081199285968194</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>58</v>
@@ -765,19 +765,19 @@
         <v>57534</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>44972</v>
+        <v>44613</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>74278</v>
+        <v>74221</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08358299140838092</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06533345177482622</v>
+        <v>0.06481192704090435</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1079077120664346</v>
+        <v>0.1078245028910609</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>99</v>
@@ -786,19 +786,19 @@
         <v>98330</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81264</v>
+        <v>80493</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118319</v>
+        <v>120435</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07118437258736833</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05882996198492551</v>
+        <v>0.05827144027282812</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0856550682528099</v>
+        <v>0.08718656514034728</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>652198</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>636426</v>
+        <v>636992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>661859</v>
+        <v>662949</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9411311778515056</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9183718583711149</v>
+        <v>0.9191880071403185</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9550717107792525</v>
+        <v>0.9566448791065757</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>638</v>
@@ -836,19 +836,19 @@
         <v>630817</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>614073</v>
+        <v>614130</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>643379</v>
+        <v>643738</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9164170085916191</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8920922879335654</v>
+        <v>0.8921754971089392</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9346665482251738</v>
+        <v>0.9351880729590959</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1279</v>
@@ -857,19 +857,19 @@
         <v>1283015</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1263026</v>
+        <v>1260910</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1300081</v>
+        <v>1300852</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9288156274126317</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.91434493174719</v>
+        <v>0.9128134348596527</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9411700380150744</v>
+        <v>0.9417285597271718</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>56233</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42264</v>
+        <v>42527</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71455</v>
+        <v>72377</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05846641058270231</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04394259341254707</v>
+        <v>0.04421638720017845</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07429311647401934</v>
+        <v>0.07525165247044312</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -982,19 +982,19 @@
         <v>87992</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>70466</v>
+        <v>71930</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>108569</v>
+        <v>107249</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09086393885089997</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07276570421213427</v>
+        <v>0.07427757423489482</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1121129068252978</v>
+        <v>0.1107497892878859</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -1003,19 +1003,19 @@
         <v>144225</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>123337</v>
+        <v>123363</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>170469</v>
+        <v>169980</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07472050561113837</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06389888544667023</v>
+        <v>0.06391209649597021</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08831705539453306</v>
+        <v>0.08806352802351824</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>905567</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>890345</v>
+        <v>889423</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>919536</v>
+        <v>919273</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9415335894172977</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9257068835259806</v>
+        <v>0.9247483475295568</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.956057406587453</v>
+        <v>0.9557836127998215</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>826</v>
@@ -1053,19 +1053,19 @@
         <v>880401</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>859824</v>
+        <v>861144</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>897927</v>
+        <v>896463</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9091360611491001</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8878870931747018</v>
+        <v>0.8892502107121144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9272342957878656</v>
+        <v>0.9257224257651053</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1667</v>
@@ -1074,19 +1074,19 @@
         <v>1785968</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1759724</v>
+        <v>1760213</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1806856</v>
+        <v>1806830</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9252794943888616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9116829446054669</v>
+        <v>0.911936471976482</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9361011145533299</v>
+        <v>0.93608790350403</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>37301</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26288</v>
+        <v>27387</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49410</v>
+        <v>51071</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05497424929424348</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03874354728359702</v>
+        <v>0.04036312900616345</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07282204227221309</v>
+        <v>0.07526975268824583</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -1199,19 +1199,19 @@
         <v>50634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38701</v>
+        <v>37848</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66241</v>
+        <v>65811</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07404337433480318</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05659335108368027</v>
+        <v>0.05534669772812362</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09686588370188109</v>
+        <v>0.09623665258645744</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -1220,19 +1220,19 @@
         <v>87934</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70971</v>
+        <v>72290</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106395</v>
+        <v>107472</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06454612927674662</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05209456720033431</v>
+        <v>0.05306235595955883</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07809669302070057</v>
+        <v>0.07888707572006519</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>641208</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>629099</v>
+        <v>627438</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>652221</v>
+        <v>651122</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9450257507057566</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9271779577277871</v>
+        <v>0.9247302473117542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9612564527164031</v>
+        <v>0.9596368709938367</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>644</v>
@@ -1270,19 +1270,19 @@
         <v>633207</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>617600</v>
+        <v>618030</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>645140</v>
+        <v>645993</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9259566256651969</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9031341162981191</v>
+        <v>0.9037633474135426</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9434066489163199</v>
+        <v>0.9446533022718765</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1248</v>
@@ -1291,19 +1291,19 @@
         <v>1274416</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1255955</v>
+        <v>1254878</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1291379</v>
+        <v>1290060</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9354538707232534</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9219033069792996</v>
+        <v>0.921112924279935</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9479054327996658</v>
+        <v>0.9469376440404412</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>56320</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>43826</v>
+        <v>44096</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71944</v>
+        <v>69974</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05977355177420982</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04651340743938495</v>
+        <v>0.04679989044032672</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07635526609837701</v>
+        <v>0.07426487293179658</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -1416,19 +1416,19 @@
         <v>70602</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55833</v>
+        <v>55394</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88042</v>
+        <v>90181</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06797722588058437</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05375731046031254</v>
+        <v>0.05333444966955511</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08476864684936329</v>
+        <v>0.08682822736244278</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -1437,19 +1437,19 @@
         <v>126922</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>106937</v>
+        <v>107173</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>148041</v>
+        <v>150036</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0640749894351908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05398588388170975</v>
+        <v>0.0541048353883964</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0747364940442509</v>
+        <v>0.07574407059060534</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>885902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>870278</v>
+        <v>872248</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>898396</v>
+        <v>898126</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9402264482257902</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9236447339016229</v>
+        <v>0.9257351270682035</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9534865925606152</v>
+        <v>0.9532001095596733</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>930</v>
@@ -1487,19 +1487,19 @@
         <v>968010</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>950570</v>
+        <v>948431</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>982779</v>
+        <v>983218</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9320227741194156</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9152313531506368</v>
+        <v>0.9131717726375572</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9462426895396875</v>
+        <v>0.9466655503304449</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1860</v>
@@ -1508,19 +1508,19 @@
         <v>1853912</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1832793</v>
+        <v>1830798</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1873897</v>
+        <v>1873661</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9359250105648091</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9252635059557491</v>
+        <v>0.9242559294093945</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9460141161182902</v>
+        <v>0.9458951646116035</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>190649</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>165743</v>
+        <v>166153</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>217398</v>
+        <v>216846</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05820416966638154</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0506005079674793</v>
+        <v>0.05072564420296714</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06637043299411595</v>
+        <v>0.06620189561769277</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>259</v>
@@ -1633,19 +1633,19 @@
         <v>266762</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>238253</v>
+        <v>236815</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>298677</v>
+        <v>300427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07894251104839838</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07050587476787733</v>
+        <v>0.0700802020046396</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08838687479010104</v>
+        <v>0.08890486802097994</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>456</v>
@@ -1654,19 +1654,19 @@
         <v>457412</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>413689</v>
+        <v>420110</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>501266</v>
+        <v>499339</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06873487891827212</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06216473828129911</v>
+        <v>0.06312957525298749</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07532482565275934</v>
+        <v>0.07503528001827912</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3084876</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3058127</v>
+        <v>3058679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3109782</v>
+        <v>3109372</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9417958303336185</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9336295670058841</v>
+        <v>0.9337981043823073</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9493994920325209</v>
+        <v>0.9492743557970329</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3038</v>
@@ -1704,19 +1704,19 @@
         <v>3112435</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3080520</v>
+        <v>3078770</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3140944</v>
+        <v>3142382</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9210574889516017</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9116131252098991</v>
+        <v>0.9110951319790208</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9294941252321227</v>
+        <v>0.9299197979953604</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6054</v>
@@ -1725,19 +1725,19 @@
         <v>6197310</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6153456</v>
+        <v>6155383</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6241033</v>
+        <v>6234612</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9312651210817279</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9246751743472407</v>
+        <v>0.924964719981721</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9378352617187006</v>
+        <v>0.9368704247470128</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>84134</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65752</v>
+        <v>67627</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104093</v>
+        <v>104258</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1200599734652446</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09382939261710151</v>
+        <v>0.09650407549623845</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1485418752251652</v>
+        <v>0.148777437814063</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>90</v>
@@ -2090,19 +2090,19 @@
         <v>96055</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>79110</v>
+        <v>78250</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114901</v>
+        <v>116334</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1383400306254425</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1139363071525438</v>
+        <v>0.1126973474150406</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1654832016841184</v>
+        <v>0.1675460645550757</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>168</v>
@@ -2111,19 +2111,19 @@
         <v>180189</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>154580</v>
+        <v>156367</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>211116</v>
+        <v>206559</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1291578906591142</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1108016992402111</v>
+        <v>0.1120826047871095</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1513262646529538</v>
+        <v>0.1480596348682883</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>616632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>596673</v>
+        <v>596508</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>635014</v>
+        <v>633139</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8799400265347553</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8514581247748345</v>
+        <v>0.8512225621859371</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9061706073828982</v>
+        <v>0.9034959245037617</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>558</v>
@@ -2161,19 +2161,19 @@
         <v>598283</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>579437</v>
+        <v>578004</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>615228</v>
+        <v>616088</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8616599693745575</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8345167983158812</v>
+        <v>0.8324539354449237</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8860636928474561</v>
+        <v>0.8873026525849589</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1151</v>
@@ -2182,19 +2182,19 @@
         <v>1214915</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1183988</v>
+        <v>1188545</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1240524</v>
+        <v>1238737</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8708421093408858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.848673735347046</v>
+        <v>0.8519403651317117</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8891983007597888</v>
+        <v>0.8879173952128906</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>102230</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>83567</v>
+        <v>83147</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123850</v>
+        <v>124368</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1004280020254111</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08209401207668658</v>
+        <v>0.08168136445257024</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1216665523955097</v>
+        <v>0.1221756150707304</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>107</v>
@@ -2307,19 +2307,19 @@
         <v>118709</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100101</v>
+        <v>99308</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>141583</v>
+        <v>139606</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1156229340730917</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09749858715423813</v>
+        <v>0.09672630857328653</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1379020287333784</v>
+        <v>0.1359760188110502</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>199</v>
@@ -2328,19 +2328,19 @@
         <v>220940</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>196282</v>
+        <v>191923</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>252835</v>
+        <v>252703</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1080579734993916</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09599803963231322</v>
+        <v>0.09386610522728465</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1236572140466499</v>
+        <v>0.1235929475707234</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>915717</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>894097</v>
+        <v>893579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>934380</v>
+        <v>934800</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8995719979745889</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8783334476044903</v>
+        <v>0.8778243849292696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9179059879233135</v>
+        <v>0.9183186355474298</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>828</v>
@@ -2378,19 +2378,19 @@
         <v>907986</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>885112</v>
+        <v>887089</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>926594</v>
+        <v>927387</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8843770659269083</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8620979712666216</v>
+        <v>0.8640239811889497</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9025014128457618</v>
+        <v>0.9032736914267134</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1672</v>
@@ -2399,19 +2399,19 @@
         <v>1823702</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1791807</v>
+        <v>1791939</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1848360</v>
+        <v>1852719</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8919420265006084</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8763427859533501</v>
+        <v>0.8764070524292765</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9040019603676868</v>
+        <v>0.9061338947727153</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>68784</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52212</v>
+        <v>53636</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87596</v>
+        <v>86680</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09091980606840992</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06901401181739181</v>
+        <v>0.07089699857914594</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1157847449982869</v>
+        <v>0.1145738962989561</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -2524,19 +2524,19 @@
         <v>98834</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79652</v>
+        <v>80694</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118731</v>
+        <v>119587</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1273166512380856</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1026063941102564</v>
+        <v>0.1039496948177033</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1529479750606522</v>
+        <v>0.1540506698217115</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -2545,19 +2545,19 @@
         <v>167618</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>140111</v>
+        <v>142916</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>194407</v>
+        <v>195720</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1093526580247356</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09140697114835743</v>
+        <v>0.09323748637350544</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1268297618030211</v>
+        <v>0.1276858173794229</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>687754</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>668942</v>
+        <v>669858</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>704326</v>
+        <v>702902</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9090801939315901</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8842152550017132</v>
+        <v>0.8854261037010439</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9309859881826081</v>
+        <v>0.929103001420854</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>616</v>
@@ -2595,19 +2595,19 @@
         <v>677449</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>657552</v>
+        <v>656696</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>696631</v>
+        <v>695589</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8726833487619144</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8470520249393479</v>
+        <v>0.8459493301782884</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8973936058897439</v>
+        <v>0.8960503051822964</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1245</v>
@@ -2616,19 +2616,19 @@
         <v>1365203</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1338414</v>
+        <v>1337101</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1392710</v>
+        <v>1389905</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8906473419752644</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8731702381969789</v>
+        <v>0.8723141826205775</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9085930288516431</v>
+        <v>0.9067625136264948</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>96839</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77102</v>
+        <v>78534</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117105</v>
+        <v>119669</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.102374615357058</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08150948898368818</v>
+        <v>0.08302304998489929</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1237991177661024</v>
+        <v>0.1265095220171007</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>115</v>
@@ -2741,19 +2741,19 @@
         <v>121969</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>102534</v>
+        <v>100017</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>144307</v>
+        <v>144839</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1162982175240016</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09776638449492624</v>
+        <v>0.09536681326113311</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1375971768935667</v>
+        <v>0.1381050682617639</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>202</v>
@@ -2762,19 +2762,19 @@
         <v>218809</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>194587</v>
+        <v>188873</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>248868</v>
+        <v>246963</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1096953190805487</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09755229798907525</v>
+        <v>0.09468747504526005</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1247647536616685</v>
+        <v>0.123809835494853</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>849091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>828825</v>
+        <v>826261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>868828</v>
+        <v>867396</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8976253846429421</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8762008822338977</v>
+        <v>0.8734904779828992</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9184905110163119</v>
+        <v>0.9169769500151007</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>885</v>
@@ -2812,19 +2812,19 @@
         <v>926794</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>904456</v>
+        <v>903924</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>946229</v>
+        <v>948746</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8837017824759984</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8624028231064333</v>
+        <v>0.8618949317382361</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9022336155050735</v>
+        <v>0.9046331867388668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1706</v>
@@ -2833,19 +2833,19 @@
         <v>1775885</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1745826</v>
+        <v>1747731</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1800107</v>
+        <v>1805821</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8903046809194513</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8752352463383315</v>
+        <v>0.876190164505147</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9024477020109247</v>
+        <v>0.9053125249547399</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>351988</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>317467</v>
+        <v>316461</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>390306</v>
+        <v>391635</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1028848928827465</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09279444438169521</v>
+        <v>0.09250060057258822</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1140851299277312</v>
+        <v>0.1144735460232436</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>400</v>
@@ -2958,19 +2958,19 @@
         <v>435567</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>397144</v>
+        <v>394241</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>480695</v>
+        <v>475074</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1228306679169676</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1119952580726624</v>
+        <v>0.1111766981195295</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1355567187974031</v>
+        <v>0.1339714806560046</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>716</v>
@@ -2979,19 +2979,19 @@
         <v>787555</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>733289</v>
+        <v>733534</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>843619</v>
+        <v>847681</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1130365591394028</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.105247849121919</v>
+        <v>0.1052829263503196</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1210832459892789</v>
+        <v>0.1216662826989511</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3069193</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3030875</v>
+        <v>3029546</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3103714</v>
+        <v>3104720</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8971151071172535</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8859148700722688</v>
+        <v>0.8855264539767563</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9072055556183047</v>
+        <v>0.9074993994274118</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2887</v>
@@ -3029,19 +3029,19 @@
         <v>3110513</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3065385</v>
+        <v>3071006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3148936</v>
+        <v>3151839</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8771693320830324</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8644432812025969</v>
+        <v>0.8660285193439952</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8880047419273387</v>
+        <v>0.8888233018804703</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5774</v>
@@ -3050,19 +3050,19 @@
         <v>6179706</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6123642</v>
+        <v>6119580</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6233972</v>
+        <v>6233727</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8869634408605972</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8789167540107211</v>
+        <v>0.8783337173010488</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8947521508780809</v>
+        <v>0.8947170736496803</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>78585</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62263</v>
+        <v>63565</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>95005</v>
+        <v>96260</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1164569237289621</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09226870711495143</v>
+        <v>0.09419826168973665</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1407900642578185</v>
+        <v>0.1426494626470784</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -3415,19 +3415,19 @@
         <v>91585</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>74287</v>
+        <v>74557</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112795</v>
+        <v>112848</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1361172332977152</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.110408795596572</v>
+        <v>0.1108093788784174</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1676404630551321</v>
+        <v>0.1677187487894052</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>167</v>
@@ -3436,19 +3436,19 @@
         <v>170170</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>147035</v>
+        <v>146774</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>195573</v>
+        <v>195146</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1262727742725795</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1091054219682907</v>
+        <v>0.1089117412228728</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1451224111369505</v>
+        <v>0.144806028392541</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>596215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>579795</v>
+        <v>578540</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>612537</v>
+        <v>611235</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8835430762710379</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8592099357421814</v>
+        <v>0.8573505373529217</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9077312928850484</v>
+        <v>0.9058017383102632</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>579</v>
@@ -3486,19 +3486,19 @@
         <v>581254</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>560044</v>
+        <v>559991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>598552</v>
+        <v>598282</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8638827667022848</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8323595369448679</v>
+        <v>0.8322812512105948</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8895912044034281</v>
+        <v>0.8891906211215825</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1151</v>
@@ -3507,19 +3507,19 @@
         <v>1177469</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1152066</v>
+        <v>1152493</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1200604</v>
+        <v>1200865</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8737272257274206</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8548775888630495</v>
+        <v>0.855193971607459</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8908945780317092</v>
+        <v>0.8910882587771273</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>97710</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>79702</v>
+        <v>81059</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>115600</v>
+        <v>118391</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09556667096171444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07795382928757186</v>
+        <v>0.07928108800957664</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1130636371413167</v>
+        <v>0.1157932102171738</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>107</v>
@@ -3632,19 +3632,19 @@
         <v>125208</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>105018</v>
+        <v>103061</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>148152</v>
+        <v>147265</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1200559448463892</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1006970251875402</v>
+        <v>0.0988207911817317</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1420557285578422</v>
+        <v>0.1412051751617179</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>201</v>
@@ -3653,19 +3653,19 @@
         <v>222918</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>195282</v>
+        <v>192040</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>252546</v>
+        <v>253034</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1079327379318005</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09455166618557527</v>
+        <v>0.0929823134219937</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1222777793758562</v>
+        <v>0.1225143626417892</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>924721</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>906831</v>
+        <v>904040</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>942729</v>
+        <v>941372</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9044333290382855</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8869363628586836</v>
+        <v>0.8842067897828262</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9220461707124282</v>
+        <v>0.9207189119904233</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>870</v>
@@ -3703,19 +3703,19 @@
         <v>917705</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>894761</v>
+        <v>895648</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>937895</v>
+        <v>939852</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8799440551536107</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.857944271442158</v>
+        <v>0.8587948248382823</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8993029748124605</v>
+        <v>0.9011792088182683</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1727</v>
@@ -3724,19 +3724,19 @@
         <v>1842426</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1812798</v>
+        <v>1812310</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1870062</v>
+        <v>1873304</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8920672620681995</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8777222206241437</v>
+        <v>0.8774856373582108</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9054483338144246</v>
+        <v>0.9070176865780063</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>72173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>55321</v>
+        <v>55156</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>89956</v>
+        <v>90033</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09502014048160186</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07283420560180649</v>
+        <v>0.07261677973808386</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1184335071058516</v>
+        <v>0.1185346234853697</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -3849,19 +3849,19 @@
         <v>61576</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46626</v>
+        <v>47184</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79451</v>
+        <v>79560</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07844016543071139</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05939566532270251</v>
+        <v>0.06010657805558207</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.10120973429153</v>
+        <v>0.1013491921613001</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -3870,19 +3870,19 @@
         <v>133749</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114537</v>
+        <v>111797</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159954</v>
+        <v>158009</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08659351125199714</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07415506276725341</v>
+        <v>0.07238085201323671</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1035596189822313</v>
+        <v>0.1023000009983675</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>687379</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>669596</v>
+        <v>669519</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>704231</v>
+        <v>704396</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9049798595183981</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8815664928941487</v>
+        <v>0.8814653765146296</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9271657943981937</v>
+        <v>0.9273832202619158</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>684</v>
@@ -3920,19 +3920,19 @@
         <v>723435</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>705560</v>
+        <v>705451</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>738385</v>
+        <v>737827</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9215598345692886</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.89879026570847</v>
+        <v>0.8986508078387002</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9406043346772975</v>
+        <v>0.9398934219444179</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1310</v>
@@ -3941,19 +3941,19 @@
         <v>1410814</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1384609</v>
+        <v>1386554</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1430026</v>
+        <v>1432766</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9134064887480029</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8964403810177687</v>
+        <v>0.8976999990016324</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9258449372327466</v>
+        <v>0.9276191479867633</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>70095</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56114</v>
+        <v>56465</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>87295</v>
+        <v>89523</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07476241430941662</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0598501316243876</v>
+        <v>0.06022469756969717</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09310837075795449</v>
+        <v>0.09548458783101341</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -4066,19 +4066,19 @@
         <v>111582</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91735</v>
+        <v>90905</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>135014</v>
+        <v>134043</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.106901560030431</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0878873483294062</v>
+        <v>0.08709196332033824</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1293514700374707</v>
+        <v>0.128420732831715</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>166</v>
@@ -4087,19 +4087,19 @@
         <v>181676</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>154715</v>
+        <v>155904</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>208852</v>
+        <v>209367</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0916934125242914</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07808599481056516</v>
+        <v>0.07868609438735205</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1054091187922858</v>
+        <v>0.105668844581791</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>867472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>850272</v>
+        <v>848044</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>881453</v>
+        <v>881102</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9252375856905833</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9068916292420459</v>
+        <v>0.9045154121689866</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9401498683756124</v>
+        <v>0.9397753024303028</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>866</v>
@@ -4137,19 +4137,19 @@
         <v>932197</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>908765</v>
+        <v>909736</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>952044</v>
+        <v>952874</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8930984399695691</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8706485299625294</v>
+        <v>0.8715792671682846</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9121126516705939</v>
+        <v>0.9129080366796617</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1725</v>
@@ -4158,19 +4158,19 @@
         <v>1799670</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1772494</v>
+        <v>1771979</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1826631</v>
+        <v>1825442</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9083065874757086</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.894590881207714</v>
+        <v>0.8943311554182091</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9219140051894347</v>
+        <v>0.9213139056126478</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>318563</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>285667</v>
+        <v>286296</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>353452</v>
+        <v>355487</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09385094936402504</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08415955811630285</v>
+        <v>0.0843449968116326</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1041296435324329</v>
+        <v>0.1047290231253397</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>339</v>
@@ -4283,19 +4283,19 @@
         <v>389951</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>350218</v>
+        <v>353871</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>431033</v>
+        <v>432705</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1100144630027955</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09880474789283292</v>
+        <v>0.09983557221183989</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1216046031479011</v>
+        <v>0.1220763438412802</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>656</v>
@@ -4304,19 +4304,19 @@
         <v>708514</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>659248</v>
+        <v>660251</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>760668</v>
+        <v>755557</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1021076350307065</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09500765199792503</v>
+        <v>0.09515225705018535</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.109623882212</v>
+        <v>0.1088872556888368</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3075787</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3040898</v>
+        <v>3038863</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3108683</v>
+        <v>3108054</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.906149050635975</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8958703564675671</v>
+        <v>0.8952709768746601</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9158404418836972</v>
+        <v>0.9156550031883671</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2999</v>
@@ -4354,19 +4354,19 @@
         <v>3154591</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3113509</v>
+        <v>3111837</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3194324</v>
+        <v>3190671</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8899855369972045</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8783953968520989</v>
+        <v>0.8779236561587196</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.901195252107167</v>
+        <v>0.9001644277881599</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5913</v>
@@ -4375,19 +4375,19 @@
         <v>6230378</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6178224</v>
+        <v>6183335</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6279644</v>
+        <v>6278641</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8978923649692935</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8903761177880001</v>
+        <v>0.8911127443111632</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.904992348002075</v>
+        <v>0.9048477429498146</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>93466</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>79141</v>
+        <v>77840</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>109771</v>
+        <v>111440</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1353188212525905</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1145796949193801</v>
+        <v>0.1126951433116817</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1589250070373496</v>
+        <v>0.1613412713984107</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>251</v>
@@ -4740,19 +4740,19 @@
         <v>111801</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>98657</v>
+        <v>98853</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>126394</v>
+        <v>126642</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1525010963741273</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1345730108688786</v>
+        <v>0.1348400492946085</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1724076050886275</v>
+        <v>0.172745598581081</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>384</v>
@@ -4761,19 +4761,19 @@
         <v>205267</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>184391</v>
+        <v>185297</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>226828</v>
+        <v>229881</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1441658160427144</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.129503958617787</v>
+        <v>0.1301406783344798</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1593090696646224</v>
+        <v>0.1614531677567513</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>597244</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>580939</v>
+        <v>579270</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>611569</v>
+        <v>612870</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8646811787474097</v>
+        <v>0.8646811787474095</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8410749929626505</v>
+        <v>0.8386587286015892</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8854203050806199</v>
+        <v>0.8873048566883183</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>988</v>
@@ -4811,19 +4811,19 @@
         <v>621312</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>606719</v>
+        <v>606471</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>634456</v>
+        <v>634260</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8474989036258725</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.827592394911373</v>
+        <v>0.827254401418919</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8654269891311217</v>
+        <v>0.8651599507053916</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1585</v>
@@ -4832,19 +4832,19 @@
         <v>1218556</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1196995</v>
+        <v>1193942</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1239432</v>
+        <v>1238526</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8558341839572857</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8406909303353779</v>
+        <v>0.8385468322432488</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.870496041382213</v>
+        <v>0.8698593216655203</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>116546</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>99092</v>
+        <v>99428</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>136432</v>
+        <v>137125</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1111109401978664</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0944706999427668</v>
+        <v>0.09479094759686407</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1300693775902589</v>
+        <v>0.1307300266571183</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>262</v>
@@ -4957,19 +4957,19 @@
         <v>143478</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>126888</v>
+        <v>126439</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>160059</v>
+        <v>160853</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1339864035355703</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1184945768674616</v>
+        <v>0.118074488438949</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1494710545021904</v>
+        <v>0.1502122676349304</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>416</v>
@@ -4978,19 +4978,19 @@
         <v>260024</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>234493</v>
+        <v>234464</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>286965</v>
+        <v>284699</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1226669521465009</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1106228899432369</v>
+        <v>0.1106092035267324</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1353764181017775</v>
+        <v>0.1343073606294087</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>932371</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>912485</v>
+        <v>911792</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>949825</v>
+        <v>949489</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8888890598021337</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8699306224097411</v>
+        <v>0.8692699733428818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9055293000572332</v>
+        <v>0.905209052403136</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1254</v>
@@ -5028,19 +5028,19 @@
         <v>927360</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>910779</v>
+        <v>909985</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>943950</v>
+        <v>944399</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8660135964644297</v>
+        <v>0.8660135964644298</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8505289454978096</v>
+        <v>0.8497877323650699</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8815054231325388</v>
+        <v>0.881925511561051</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2064</v>
@@ -5049,19 +5049,19 @@
         <v>1859731</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1832790</v>
+        <v>1835056</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1885262</v>
+        <v>1885291</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8773330478534991</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8646235818982224</v>
+        <v>0.8656926393705916</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8893771100567629</v>
+        <v>0.8893907964732678</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>95757</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78577</v>
+        <v>79644</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116774</v>
+        <v>114533</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1193855265111547</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09796533315125835</v>
+        <v>0.09929549537738468</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1455878436309689</v>
+        <v>0.1427934849773772</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>143</v>
@@ -5174,19 +5174,19 @@
         <v>93013</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78621</v>
+        <v>78279</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>109365</v>
+        <v>108923</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1145952052904961</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09686435345908707</v>
+        <v>0.09644297630884323</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1347416648678513</v>
+        <v>0.1341976959323938</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>246</v>
@@ -5195,19 +5195,19 @@
         <v>188770</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>165191</v>
+        <v>164550</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>212724</v>
+        <v>213025</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1169761514158559</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1023647853786303</v>
+        <v>0.101967408018685</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1318195616273519</v>
+        <v>0.1320062642091095</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>706329</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>685312</v>
+        <v>687553</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>723509</v>
+        <v>722442</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8806144734888453</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8544121563690309</v>
+        <v>0.8572065150226228</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9020346668487417</v>
+        <v>0.9007045046226153</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>903</v>
@@ -5245,19 +5245,19 @@
         <v>718650</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>702298</v>
+        <v>702740</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>733042</v>
+        <v>733384</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8854047947095038</v>
+        <v>0.8854047947095036</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8652583351321486</v>
+        <v>0.8658023040676063</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9031356465409129</v>
+        <v>0.9035570236911568</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1475</v>
@@ -5266,19 +5266,19 @@
         <v>1424978</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1401024</v>
+        <v>1400723</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1448557</v>
+        <v>1449198</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.883023848584144</v>
+        <v>0.8830238485841441</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8681804383726482</v>
+        <v>0.8679937357908902</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8976352146213701</v>
+        <v>0.8980325919813148</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>117725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100947</v>
+        <v>101258</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138916</v>
+        <v>137108</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1189070135540304</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1019606060977928</v>
+        <v>0.1022746323665341</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1403100983885003</v>
+        <v>0.1384845729322018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>288</v>
@@ -5391,19 +5391,19 @@
         <v>170038</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>150374</v>
+        <v>152609</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>189900</v>
+        <v>190363</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1522235718079626</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.134619501124617</v>
+        <v>0.1366202762047717</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1700039810309572</v>
+        <v>0.1704187008886255</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>450</v>
@@ -5412,19 +5412,19 @@
         <v>287764</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>261723</v>
+        <v>260264</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>312793</v>
+        <v>312338</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1365690813470587</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1242106519110668</v>
+        <v>0.1235178113032828</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1484474234999838</v>
+        <v>0.1482318435737094</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>872337</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>851146</v>
+        <v>852954</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>889115</v>
+        <v>888804</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8810929864459697</v>
+        <v>0.8810929864459696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8596899016114995</v>
+        <v>0.8615154270677983</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8980393939022072</v>
+        <v>0.8977253676334659</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1271</v>
@@ -5462,19 +5462,19 @@
         <v>946993</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>927131</v>
+        <v>926668</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>966657</v>
+        <v>964422</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8477764281920375</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8299960189690428</v>
+        <v>0.8295812991113743</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8653804988753825</v>
+        <v>0.8633797237952283</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2115</v>
@@ -5483,19 +5483,19 @@
         <v>1819329</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1794300</v>
+        <v>1794755</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1845370</v>
+        <v>1846829</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8634309186529413</v>
+        <v>0.8634309186529414</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8515525765000164</v>
+        <v>0.8517681564262908</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8757893480889334</v>
+        <v>0.8764821886967177</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>423495</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>389253</v>
+        <v>387344</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>458956</v>
+        <v>460076</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.11990995586167</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1102144921849681</v>
+        <v>0.1096740802742392</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1299504596032464</v>
+        <v>0.1302675119909749</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>944</v>
@@ -5608,19 +5608,19 @@
         <v>518329</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>486520</v>
+        <v>488713</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>551456</v>
+        <v>553670</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1388638391526295</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1303419372563774</v>
+        <v>0.1309294497317474</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1477387047118719</v>
+        <v>0.1483317118681589</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1496</v>
@@ -5629,19 +5629,19 @@
         <v>941824</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>891102</v>
+        <v>893162</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>989330</v>
+        <v>994226</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1296489464831197</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1226666724310728</v>
+        <v>0.1229501971917022</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1361884414991504</v>
+        <v>0.136862421940205</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3108280</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3072819</v>
+        <v>3071699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3142522</v>
+        <v>3144431</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.88009004413833</v>
+        <v>0.8800900441383299</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8700495403967531</v>
+        <v>0.8697324880090249</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8897855078150316</v>
+        <v>0.8903259197257609</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4416</v>
@@ -5679,19 +5679,19 @@
         <v>3214316</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3181189</v>
+        <v>3178975</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3246125</v>
+        <v>3243932</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8611361608473705</v>
+        <v>0.8611361608473703</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.852261295288128</v>
+        <v>0.851668288131841</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8696580627436225</v>
+        <v>0.8690705502682525</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7239</v>
@@ -5700,19 +5700,19 @@
         <v>6322595</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6275089</v>
+        <v>6270193</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6373317</v>
+        <v>6371257</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8703510535168804</v>
+        <v>0.8703510535168802</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8638115585008497</v>
+        <v>0.8631375780597952</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8773333275689273</v>
+        <v>0.8770498028082976</v>
       </c>
     </row>
     <row r="18">
